--- a/EDA데이터셋/(주)플루비오파일 홍보 데이터/2.Contents-copy.xlsx
+++ b/EDA데이터셋/(주)플루비오파일 홍보 데이터/2.Contents-copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seohyunkwon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC20A5E-F29D-4B3E-BB3E-11516C2D0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F462A-0AC0-C444-A2EE-6AA4B436DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="710" windowWidth="28800" windowHeight="15460" xr2:uid="{C6DE21E0-6F34-4ED5-8725-E843ED377933}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15460" xr2:uid="{C6DE21E0-6F34-4ED5-8725-E843ED377933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>1. 잘 자게 도와줘서 시험 더 잘 볼 수 있게 해줌</t>
   </si>
@@ -160,18 +160,6 @@
   </si>
   <si>
     <t>17-30 (남녀)</t>
-  </si>
-  <si>
-    <t>불면증, 수면</t>
-  </si>
-  <si>
-    <t>1.5분만에 잠드는 기적</t>
-  </si>
-  <si>
-    <t>2. 뇌과학의 원리로 잠에 마법을 부려보자!</t>
-  </si>
-  <si>
-    <t>3. 제 수면은 도지를 만나기 전과 후로 나뉘어요.</t>
   </si>
   <si>
     <t>10.불안감을 해결하게</t>
@@ -225,6 +213,10 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,29 +613,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6C3FEB-FDC9-4AE4-975C-3C4269525F51}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="4" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" customHeight="1">
@@ -696,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -710,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -735,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -889,24 +881,24 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -914,44 +906,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
